--- a/01 requirements/resource_id.xlsx
+++ b/01 requirements/resource_id.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanhc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanhc\Desktop\dailyreport\01 requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>label.project</t>
   </si>
@@ -150,13 +150,172 @@
   </si>
   <si>
     <t>label.level</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Add project</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>Project manament</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Task Code</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Employee manager</t>
+  </si>
+  <si>
+    <t>Finish at</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Time work</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Start at</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Invalid username or password</t>
+  </si>
+  <si>
+    <t>Employee does not exist</t>
+  </si>
+  <si>
+    <t>error.login.invalid</t>
+  </si>
+  <si>
+    <t>error.employee.not.exist</t>
+  </si>
+  <si>
+    <t>error.projectcode.exist</t>
+  </si>
+  <si>
+    <t>Project code is exist</t>
+  </si>
+  <si>
+    <t>Start date must be less than or equal to end date</t>
+  </si>
+  <si>
+    <t>error.startdate.invalid</t>
+  </si>
+  <si>
+    <t>error.projectcode.not.exist</t>
+  </si>
+  <si>
+    <t>Project code does not exist</t>
+  </si>
+  <si>
+    <t>error.taskcode.exist</t>
+  </si>
+  <si>
+    <t>Task code is exist</t>
+  </si>
+  <si>
+    <t>error.user.not.exist</t>
+  </si>
+  <si>
+    <t>User does not exist</t>
+  </si>
+  <si>
+    <t>error.taskcode.not.exist</t>
+  </si>
+  <si>
+    <t>Task code does not exist</t>
+  </si>
+  <si>
+    <t>error.rights.not.exist</t>
+  </si>
+  <si>
+    <t>Rights does not exist</t>
+  </si>
+  <si>
+    <t>error.permission</t>
+  </si>
+  <si>
+    <t>Not permission</t>
+  </si>
+  <si>
+    <t>Tên tài khoản hoặc mật khẩu không hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhân viên không tồn tại</t>
+  </si>
+  <si>
+    <t>Mã dự án tồn tại</t>
+  </si>
+  <si>
+    <t>Mã dự án không tồn tại</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu phải nhỏ hơn ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Mã công việc tồn tại</t>
+  </si>
+  <si>
+    <t>Mã công việc không tồn tại</t>
+  </si>
+  <si>
+    <t>Người dùng không tồn tại</t>
+  </si>
+  <si>
+    <t>Quyền không tồn tại</t>
+  </si>
+  <si>
+    <t>Không đủ quyền</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,28 +323,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -193,32 +340,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,185 +628,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
